--- a/src/templates/Nursery_Template.xlsx
+++ b/src/templates/Nursery_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F555773-993B-4701-A546-96707D4D46A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4EEA49-9CEA-4217-8123-53625B2125EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1826" yWindow="2897" windowWidth="30085" windowHeight="14366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1886" yWindow="1886" windowWidth="30085" windowHeight="14365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Region</t>
   </si>
@@ -52,6 +52,27 @@
     <t>Period of MOA</t>
   </si>
   <si>
+    <t>Regional Office 5</t>
+  </si>
+  <si>
+    <t>Catanduanes</t>
+  </si>
+  <si>
+    <t>Caramoran</t>
+  </si>
+  <si>
+    <t>Wagas</t>
+  </si>
+  <si>
+    <t>PhilFIDA</t>
+  </si>
+  <si>
+    <t>Juan Dela Cruz</t>
+  </si>
+  <si>
+    <t>Kutay</t>
+  </si>
+  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -61,54 +82,33 @@
     <t>Report Date</t>
   </si>
   <si>
+    <t>Nurseries</t>
+  </si>
+  <si>
+    <t>Established</t>
+  </si>
+  <si>
     <t>Monthly Report of Technical Assistance</t>
   </si>
   <si>
     <t>For the month of ______________</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Form A.1:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Report on Abaca Nurseries Maintained (PhilFIDA Funded)</t>
-    </r>
+    <t>Regional Office _____________</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is a sample data </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,8 +137,8 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -150,22 +150,26 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,7 +178,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,56 +213,49 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{13F2BB9C-3AA2-4A57-BFDB-EED420BFC2E4}"/>
-    <cellStyle name="Comma 2 2" xfId="5" xr:uid="{5DA33C18-AB2D-4337-8013-C14254160389}"/>
-    <cellStyle name="Comma 3" xfId="4" xr:uid="{886F9A8E-A697-4761-9C51-FDB8915AFD13}"/>
-    <cellStyle name="Comma 4" xfId="2" xr:uid="{0FCBCE1A-E4FB-4DB7-94F3-6E010A0E5457}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E67AA421-56D7-44D4-9D5E-47D5FBCBF611}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,273 +471,349 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" customWidth="1"/>
-    <col min="2" max="2" width="18.23046875" customWidth="1"/>
-    <col min="3" max="4" width="18.15234375" customWidth="1"/>
-    <col min="5" max="5" width="17.765625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="18.921875" customWidth="1"/>
-    <col min="8" max="8" width="39.4609375" customWidth="1"/>
-    <col min="9" max="9" width="17.84375" customWidth="1"/>
-    <col min="10" max="10" width="17.3828125" customWidth="1"/>
-    <col min="11" max="11" width="15.4609375" customWidth="1"/>
-    <col min="12" max="12" width="16.07421875" customWidth="1"/>
+    <col min="1" max="3" width="15.69140625" customWidth="1"/>
+    <col min="4" max="4" width="17.69140625" customWidth="1"/>
+    <col min="5" max="8" width="15.69140625" customWidth="1"/>
+    <col min="9" max="9" width="40.69140625" customWidth="1"/>
+    <col min="10" max="13" width="15.69140625" customWidth="1"/>
+    <col min="14" max="14" width="30.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.45" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>45030</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="I6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="J6" s="11">
+        <v>44516</v>
+      </c>
+      <c r="K6" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="7"/>
+      <c r="L6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/templates/Nursery_Template.xlsx
+++ b/src/templates/Nursery_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4EEA49-9CEA-4217-8123-53625B2125EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0FC70E-7107-4083-BE5D-6832D148764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1886" yWindow="1886" windowWidth="30085" windowHeight="14365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="583" yWindow="1843" windowWidth="31723" windowHeight="14366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>Regional Office _____________</t>
   </si>
   <si>
-    <t xml:space="preserve"> This is a sample data </t>
+    <t>Delete this sample data before proceeding.</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/templates/Nursery_Template.xlsx
+++ b/src/templates/Nursery_Template.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0FC70E-7107-4083-BE5D-6832D148764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF1FF30-0A52-43E1-BE06-08A9C929B180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="583" yWindow="1843" windowWidth="31723" windowHeight="14366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="317" yWindow="2683" windowWidth="31723" windowHeight="14366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -112,61 +124,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -184,13 +183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,35 +221,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -259,6 +251,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB5ACEC"/>
+      <color rgb="FFDAD890"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -471,349 +469,761 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="15.69140625" customWidth="1"/>
-    <col min="4" max="4" width="17.69140625" customWidth="1"/>
-    <col min="5" max="8" width="15.69140625" customWidth="1"/>
-    <col min="9" max="9" width="40.69140625" customWidth="1"/>
-    <col min="10" max="13" width="15.69140625" customWidth="1"/>
-    <col min="14" max="14" width="30.69140625" customWidth="1"/>
+    <col min="1" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" customWidth="1"/>
+    <col min="12" max="13" width="15" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="12.53515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="13" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="12.45" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+    <row r="5" spans="1:14" ht="12.9" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>45030</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="3">
         <v>44516</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="4">
         <v>10</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="4">
         <v>2024</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="3"/>
+    <row r="7" spans="1:14" ht="12.9" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/templates/Nursery_Template.xlsx
+++ b/src/templates/Nursery_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A44126-996F-48A3-8AE5-1A7245E2FD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054791ED-B59A-4F0B-8A2A-44A351924318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Region</t>
   </si>
@@ -110,13 +110,16 @@
   </si>
   <si>
     <t>Delete this sample data before proceeding.</t>
+  </si>
+  <si>
+    <t>Nursery Upload Form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -155,6 +158,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -182,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,33 +215,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,210 +497,212 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20" style="2" customWidth="1"/>
-    <col min="12" max="13" width="15" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="12.53515625" style="2"/>
+    <col min="1" max="3" width="15" style="3" customWidth="1"/>
+    <col min="4" max="8" width="20" style="3" customWidth="1"/>
+    <col min="9" max="9" width="40" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20" style="3" customWidth="1"/>
+    <col min="12" max="13" width="15" style="3" customWidth="1"/>
+    <col min="14" max="14" width="30" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="12.53515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="10" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="10" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="10" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
     <row r="6" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
         <v>45030</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J7" s="5">
         <v>44516</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K7" s="6">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M7" s="6">
         <v>2024</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
     <row r="8" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
@@ -695,7 +737,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -711,7 +753,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -727,7 +769,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -824,19 +866,19 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1207,11 +1249,29 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <sheetProtection algorithmName="SHA-512" hashValue="K/TnSF3qtUX+YmmMtg/UrfUNmIToG2fQn7hvr0d535U5QsHllhGf/ZmR/N56yinYVFF+SjJOBAc0RXv0MJrjXg==" saltValue="wszpPPNHk9gCszHS2FvgWw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="4">
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="E2:L2"/>
     <mergeCell ref="E3:L3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/templates/Nursery_Template.xlsx
+++ b/src/templates/Nursery_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054791ED-B59A-4F0B-8A2A-44A351924318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1882E7-EF76-43C5-88EF-9C3DE032801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1191" yWindow="3429" windowWidth="31723" windowHeight="14365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Funded by</t>
   </si>
   <si>
-    <t>Complete Name of Cooperator/ Organization</t>
-  </si>
-  <si>
     <t>Date Established</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Period of MOA</t>
   </si>
   <si>
-    <t>Regional Office 5</t>
-  </si>
-  <si>
     <t>Catanduanes</t>
   </si>
   <si>
@@ -113,6 +107,12 @@
   </si>
   <si>
     <t>Nursery Upload Form</t>
+  </si>
+  <si>
+    <t>Name of Cooperative/ Individual</t>
+  </si>
+  <si>
+    <t>Region 4</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,6 +264,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -500,7 +503,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -520,16 +523,16 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="E1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
@@ -538,16 +541,16 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
@@ -556,24 +559,24 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="12"/>
+      <c r="A4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="10"/>
@@ -589,10 +592,10 @@
     </row>
     <row r="5" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -604,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>2</v>
@@ -612,23 +615,23 @@
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
@@ -652,26 +655,26 @@
         <v>45030</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="J7" s="5">
         <v>44516</v>
@@ -680,13 +683,13 @@
         <v>10</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M7" s="6">
         <v>2024</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
@@ -1266,7 +1269,7 @@
       <c r="N43" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K/TnSF3qtUX+YmmMtg/UrfUNmIToG2fQn7hvr0d535U5QsHllhGf/ZmR/N56yinYVFF+SjJOBAc0RXv0MJrjXg==" saltValue="wszpPPNHk9gCszHS2FvgWw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d33pWHBk2pw5DV4g/h0t+az0ut5lphpyCB2j6yNSaeewbnDw0QlkN+j/tbpUk6OJblLWebTHOt2oaHAYMOvWYw==" saltValue="Egkk4Tb+sUejEmw7s7w9jQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="E2:L2"/>

--- a/src/templates/Nursery_Template.xlsx
+++ b/src/templates/Nursery_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1882E7-EF76-43C5-88EF-9C3DE032801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB3505E2-2342-4846-9AB8-6988737CBCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1191" yWindow="3429" windowWidth="31723" windowHeight="14365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Region</t>
   </si>
@@ -112,7 +112,19 @@
     <t>Name of Cooperative/ Individual</t>
   </si>
   <si>
-    <t>Region 4</t>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Regional Office 4</t>
   </si>
 </sst>
 </file>
@@ -228,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +279,10 @@
     </xf>
     <xf numFmtId="12" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -500,97 +516,111 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15" style="3" customWidth="1"/>
-    <col min="4" max="8" width="20" style="3" customWidth="1"/>
-    <col min="9" max="9" width="40" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20" style="3" customWidth="1"/>
-    <col min="12" max="13" width="15" style="3" customWidth="1"/>
-    <col min="14" max="14" width="30" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="12.53515625" style="3"/>
+    <col min="4" max="10" width="20" style="3" customWidth="1"/>
+    <col min="11" max="11" width="40" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="30" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L4" s="12"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -615,26 +645,35 @@
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -649,8 +688,11 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45030</v>
       </c>
@@ -661,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>9</v>
@@ -673,26 +715,35 @@
       <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5">
+        <v>44516</v>
+      </c>
+      <c r="J7" s="6">
+        <v>45</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="5">
+      <c r="L7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="5">
         <v>44516</v>
       </c>
-      <c r="K7" s="6">
+      <c r="N7" s="6">
         <v>10</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="6">
+      <c r="P7" s="6">
         <v>2024</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -707,8 +758,11 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
@@ -718,13 +772,16 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -734,13 +791,16 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -750,13 +810,16 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M11" s="9"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -766,13 +829,16 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="M12" s="9"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -782,13 +848,16 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M13" s="9"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
@@ -798,13 +867,16 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M14" s="9"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
@@ -814,13 +886,16 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M15" s="9"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -830,13 +905,16 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M16" s="9"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
@@ -846,13 +924,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M17" s="9"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
@@ -862,13 +943,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M18" s="9"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
@@ -878,13 +962,16 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M19" s="9"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -899,8 +986,11 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -915,8 +1005,11 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -931,8 +1024,11 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -947,8 +1043,11 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -963,8 +1062,11 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -979,8 +1081,11 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -995,8 +1100,11 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1011,8 +1119,11 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1027,8 +1138,11 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1043,8 +1157,11 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1059,8 +1176,11 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1075,8 +1195,11 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1091,8 +1214,11 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1107,8 +1233,11 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1123,8 +1252,11 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1139,8 +1271,11 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1155,8 +1290,11 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1171,8 +1309,11 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1187,8 +1328,11 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1203,8 +1347,11 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1219,8 +1366,11 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1235,8 +1385,11 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1251,8 +1404,11 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1267,13 +1423,16 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d33pWHBk2pw5DV4g/h0t+az0ut5lphpyCB2j6yNSaeewbnDw0QlkN+j/tbpUk6OJblLWebTHOt2oaHAYMOvWYw==" saltValue="Egkk4Tb+sUejEmw7s7w9jQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="E3:O3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
